--- a/scimagojr/scimagojr_1998.xlsx
+++ b/scimagojr/scimagojr_1998.xlsx
@@ -107,12 +107,12 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>Belgium</t>
+  </si>
+  <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -224,12 +224,12 @@
     <t>Iran</t>
   </si>
   <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
     <t>Cuba</t>
   </si>
   <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
@@ -254,12 +254,12 @@
     <t>Colombia</t>
   </si>
   <si>
+    <t>Kenya</t>
+  </si>
+  <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -281,12 +281,12 @@
     <t>United Arab Emirates</t>
   </si>
   <si>
+    <t>Iceland</t>
+  </si>
+  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -395,24 +395,24 @@
     <t>Panama</t>
   </si>
   <si>
+    <t>Libya</t>
+  </si>
+  <si>
     <t>Malawi</t>
   </si>
   <si>
-    <t>Libya</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
+    <t>Benin</t>
+  </si>
+  <si>
     <t>Mali</t>
   </si>
   <si>
     <t>Namibia</t>
   </si>
   <si>
-    <t>Benin</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
@@ -431,12 +431,12 @@
     <t>Congo</t>
   </si>
   <si>
+    <t>Gabon</t>
+  </si>
+  <si>
     <t>New Caledonia</t>
   </si>
   <si>
-    <t>Gabon</t>
-  </si>
-  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
@@ -494,18 +494,18 @@
     <t>Tajikistan</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Guam</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Nicaragua</t>
   </si>
   <si>
     <t>Honduras</t>
   </si>
   <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
     <t>Bermuda</t>
   </si>
   <si>
@@ -533,24 +533,24 @@
     <t>Sierra Leone</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
     <t>Netherlands Antilles</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
     <t>Democratic Republic Congo</t>
   </si>
   <si>
+    <t>Haïti</t>
+  </si>
+  <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>Haïti</t>
-  </si>
-  <si>
     <t>Greenland</t>
   </si>
   <si>
@@ -560,163 +560,163 @@
     <t>Solomon Islands</t>
   </si>
   <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Mauritania</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>Turkmenistan</t>
   </si>
   <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
     <t>Bahamas</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
     <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
     <t>Burundi</t>
   </si>
   <si>
-    <t>Angola</t>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Guyana</t>
   </si>
   <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
     <t>Belize</t>
   </si>
   <si>
+    <t>Dominica</t>
+  </si>
+  <si>
     <t>San Marino</t>
   </si>
   <si>
     <t>Reunion</t>
   </si>
   <si>
-    <t>Dominica</t>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
   </si>
   <si>
     <t>Grenada</t>
   </si>
   <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Andorra</t>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
   </si>
   <si>
     <t>Maldives</t>
   </si>
   <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
+    <t>Tonga</t>
+  </si>
+  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Liberia</t>
   </si>
   <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
     <t>Virgin Islands (British)</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
     <t>Christmas Island</t>
   </si>
   <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
     <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>French Southern Territories</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
   </si>
 </sst>
 </file>
@@ -860,22 +860,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>359350</v>
+        <v>361292</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>346765</v>
+        <v>348952</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>16693037</v>
+        <v>17849932</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>7426233</v>
+        <v>7806300</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>46.45</v>
+        <v>49.41</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -889,22 +889,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>98751</v>
+        <v>99153</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>92764</v>
+        <v>93215</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3847576</v>
+        <v>4111095</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>815567</v>
+        <v>851028</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>38.96</v>
+        <v>41.46</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -918,22 +918,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>97721</v>
+        <v>98205</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>96508</v>
+        <v>97057</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2446870</v>
+        <v>2589930</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>630584</v>
+        <v>649509</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>25.04</v>
+        <v>26.37</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -947,22 +947,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>86215</v>
+        <v>86505</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>84433</v>
+        <v>84765</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2895259</v>
+        <v>3066740</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>657445</v>
+        <v>679775</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>33.58</v>
+        <v>35.45</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>61514</v>
+        <v>61735</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>59922</v>
+        <v>60182</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2132707</v>
+        <v>2264984</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>413246</v>
+        <v>427106</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>34.67</v>
+        <v>36.69</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1005,22 +1005,22 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>42951</v>
+        <v>43077</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>41799</v>
+        <v>41951</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1860721</v>
+        <v>2000365</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>297188</v>
+        <v>309791</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>43.32</v>
+        <v>46.44</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1034,22 +1034,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>42655</v>
+        <v>42646</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>42564</v>
+        <v>42561</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>442008</v>
+        <v>470804</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>197589</v>
+        <v>210986</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>10.36</v>
+        <v>11.04</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1063,22 +1063,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>41391</v>
+        <v>41481</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>40263</v>
+        <v>40380</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1323581</v>
+        <v>1401557</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>266107</v>
+        <v>276542</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>31.98</v>
+        <v>33.79</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>34641</v>
+        <v>34686</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>34530</v>
+        <v>34582</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>387800</v>
+        <v>412643</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>109413</v>
+        <v>114595</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>11.19</v>
+        <v>11.9</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1121,22 +1121,22 @@
         <v>12</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>28365</v>
+        <v>28449</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>27291</v>
+        <v>27392</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>814253</v>
+        <v>865879</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>176089</v>
+        <v>182302</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>28.71</v>
+        <v>30.44</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1150,22 +1150,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>27899</v>
+        <v>28064</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>26829</v>
+        <v>27015</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1073594</v>
+        <v>1153241</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>193992</v>
+        <v>202907</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>38.48</v>
+        <v>41.09</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1179,22 +1179,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>24589</v>
+        <v>24692</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>23958</v>
+        <v>24081</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1130087</v>
+        <v>1203791</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>149551</v>
+        <v>153960</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>45.96</v>
+        <v>48.75</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1208,22 +1208,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>23106</v>
+        <v>23100</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>22585</v>
+        <v>22601</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>392659</v>
+        <v>422081</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>129579</v>
+        <v>138917</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>16.99</v>
+        <v>18.27</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1237,22 +1237,22 @@
         <v>12</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>19071</v>
+        <v>19128</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>18226</v>
+        <v>18298</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>810612</v>
+        <v>861413</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>108581</v>
+        <v>111436</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>42.5</v>
+        <v>45.03</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1266,22 +1266,22 @@
         <v>12</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>17183</v>
+        <v>17237</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>16772</v>
+        <v>16841</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>849259</v>
+        <v>899166</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>91991</v>
+        <v>94500</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>49.42</v>
+        <v>52.16</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1295,22 +1295,22 @@
         <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
+        <v>14377</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>14312</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>14240</v>
-      </c>
       <c r="F17" s="0" t="n">
-        <v>305350</v>
+        <v>324398</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>52975</v>
+        <v>54336</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>21.34</v>
+        <v>22.56</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1321,25 +1321,25 @@
         <v>30</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>13173</v>
+        <v>13193</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>13080</v>
+        <v>12855</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>227299</v>
+        <v>511659</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>53625</v>
+        <v>57575</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>17.25</v>
+        <v>38.78</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>660</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1350,25 +1350,25 @@
         <v>31</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>13163</v>
+        <v>13181</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>12814</v>
+        <v>13090</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>480868</v>
+        <v>240931</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>55990</v>
+        <v>55180</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>36.53</v>
+        <v>18.28</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>942</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1382,22 +1382,22 @@
         <v>33</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>12859</v>
+        <v>12887</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>12712</v>
+        <v>12748</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>289250</v>
+        <v>310171</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>84532</v>
+        <v>88790</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>22.49</v>
+        <v>24.07</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1411,22 +1411,22 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>12479</v>
+        <v>12529</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>12381</v>
+        <v>12440</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>262116</v>
+        <v>279165</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>46203</v>
+        <v>47261</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>21</v>
+        <v>22.28</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1440,22 +1440,22 @@
         <v>36</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>11230</v>
+        <v>11243</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>10961</v>
+        <v>10984</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>464622</v>
+        <v>496272</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>54462</v>
+        <v>56139</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>41.37</v>
+        <v>44.14</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1469,22 +1469,22 @@
         <v>12</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>9653</v>
+        <v>9678</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>9466</v>
+        <v>9502</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>446064</v>
+        <v>474910</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>51977</v>
+        <v>53692</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>46.21</v>
+        <v>49.07</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1498,22 +1498,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>8982</v>
+        <v>9007</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>8841</v>
+        <v>8874</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>365795</v>
+        <v>390547</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>48417</v>
+        <v>49803</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>40.73</v>
+        <v>43.36</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1527,22 +1527,22 @@
         <v>12</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>8445</v>
+        <v>8459</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>8229</v>
+        <v>8250</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>298963</v>
+        <v>317490</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>33409</v>
+        <v>34425</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>35.4</v>
+        <v>37.53</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1556,22 +1556,22 @@
         <v>12</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>6878</v>
+        <v>6888</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>6761</v>
+        <v>6777</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>261673</v>
+        <v>279748</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>37245</v>
+        <v>38725</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>38.04</v>
+        <v>40.61</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1585,22 +1585,22 @@
         <v>36</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>6787</v>
+        <v>6797</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>6489</v>
+        <v>6497</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>120298</v>
+        <v>129080</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>29630</v>
+        <v>31259</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>17.72</v>
+        <v>18.99</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1617,19 +1617,19 @@
         <v>6693</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>6680</v>
+        <v>6682</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>45906</v>
+        <v>48863</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>12392</v>
+        <v>13051</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>6.86</v>
+        <v>7.3</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1643,22 +1643,22 @@
         <v>14</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>6337</v>
+        <v>6376</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>6208</v>
+        <v>6248</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>190832</v>
+        <v>206641</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>23935</v>
+        <v>24654</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>30.11</v>
+        <v>32.41</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1672,22 +1672,22 @@
         <v>21</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>5976</v>
+        <v>5981</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>5929</v>
+        <v>5937</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>106025</v>
+        <v>111682</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>21488</v>
+        <v>21940</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>17.74</v>
+        <v>18.67</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1701,22 +1701,22 @@
         <v>33</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>5955</v>
+        <v>5965</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>5884</v>
+        <v>5895</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>138557</v>
+        <v>148352</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>27546</v>
+        <v>28998</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>23.27</v>
+        <v>24.87</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1730,22 +1730,22 @@
         <v>12</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>5928</v>
+        <v>5941</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>5798</v>
+        <v>5811</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>161400</v>
+        <v>172520</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>23486</v>
+        <v>24291</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>27.23</v>
+        <v>29.04</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1759,22 +1759,22 @@
         <v>21</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>5781</v>
+        <v>5790</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>5697</v>
+        <v>5709</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>129595</v>
+        <v>137869</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>19588</v>
+        <v>20215</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>22.42</v>
+        <v>23.81</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1788,22 +1788,22 @@
         <v>24</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5636</v>
+        <v>5650</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>5482</v>
+        <v>5499</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>209414</v>
+        <v>224405</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>27241</v>
+        <v>28426</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>37.16</v>
+        <v>39.72</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1817,22 +1817,22 @@
         <v>50</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>5084</v>
+        <v>5145</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>4891</v>
+        <v>4949</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>124985</v>
+        <v>134967</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>21819</v>
+        <v>23260</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>24.58</v>
+        <v>26.23</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1846,22 +1846,22 @@
         <v>33</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>4898</v>
+        <v>4914</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>4829</v>
+        <v>4842</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>133033</v>
+        <v>143240</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>27112</v>
+        <v>28464</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>27.16</v>
+        <v>29.15</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1875,22 +1875,22 @@
         <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>4087</v>
+        <v>4107</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>4040</v>
+        <v>4061</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>109867</v>
+        <v>118916</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>10467</v>
+        <v>10825</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>26.88</v>
+        <v>28.95</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1904,22 +1904,22 @@
         <v>12</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>3670</v>
+        <v>3684</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>3608</v>
+        <v>3622</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>93244</v>
+        <v>99390</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>15653</v>
+        <v>16278</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>25.41</v>
+        <v>26.98</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1933,22 +1933,22 @@
         <v>12</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>3273</v>
+        <v>3288</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>3154</v>
+        <v>3168</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>115286</v>
+        <v>121982</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>9766</v>
+        <v>10089</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>35.22</v>
+        <v>37.1</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1962,22 +1962,22 @@
         <v>56</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2996</v>
+        <v>2998</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>52561</v>
+        <v>56730</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>9482</v>
+        <v>10058</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>17.47</v>
+        <v>18.84</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -1991,22 +1991,22 @@
         <v>21</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2793</v>
+        <v>2802</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2773</v>
+        <v>2782</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>34410</v>
+        <v>36662</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>6186</v>
+        <v>6409</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>12.32</v>
+        <v>13.08</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2020,22 +2020,22 @@
         <v>21</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>36115</v>
+        <v>38023</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>6873</v>
+        <v>6990</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>13.64</v>
+        <v>14.35</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2049,22 +2049,22 @@
         <v>21</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2272</v>
+        <v>2277</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>36613</v>
+        <v>38955</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>5367</v>
+        <v>5571</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>15.98</v>
+        <v>16.97</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2078,22 +2078,22 @@
         <v>36</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>35469</v>
+        <v>38594</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>4316</v>
+        <v>4688</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>16.75</v>
+        <v>18.2</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2107,22 +2107,22 @@
         <v>33</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>69099</v>
+        <v>74819</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>9393</v>
+        <v>9834</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>35.47</v>
+        <v>38.35</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2136,22 +2136,22 @@
         <v>21</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1891</v>
+        <v>1898</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1859</v>
+        <v>1865</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>29113</v>
+        <v>31693</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>5456</v>
+        <v>5715</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>15.4</v>
+        <v>16.7</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2165,22 +2165,22 @@
         <v>14</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1647</v>
+        <v>1682</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1631</v>
+        <v>1666</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>41980</v>
+        <v>45882</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>5999</v>
+        <v>6338</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>25.49</v>
+        <v>27.28</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2194,22 +2194,22 @@
         <v>21</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1583</v>
+        <v>1590</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1565</v>
+        <v>1572</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>33678</v>
+        <v>35904</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>5657</v>
+        <v>5852</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>21.27</v>
+        <v>22.58</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2223,22 +2223,22 @@
         <v>21</v>
       </c>
       <c r="D49" s="0" t="n">
+        <v>1467</v>
+      </c>
+      <c r="E49" s="0" t="n">
         <v>1462</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>1457</v>
-      </c>
       <c r="F49" s="0" t="n">
-        <v>13109</v>
+        <v>13777</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>2383</v>
+        <v>2447</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>8.97</v>
+        <v>9.39</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2252,22 +2252,22 @@
         <v>14</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>23536</v>
+        <v>25328</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>3862</v>
+        <v>4058</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>18.53</v>
+        <v>19.88</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2281,22 +2281,22 @@
         <v>33</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>27798</v>
+        <v>29830</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>3023</v>
+        <v>3115</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>22.45</v>
+        <v>24</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2310,22 +2310,22 @@
         <v>36</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>26705</v>
+        <v>28325</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>8235</v>
+        <v>8526</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>21.69</v>
+        <v>22.99</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2336,25 +2336,25 @@
         <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>1187</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>20283</v>
+        <v>16813</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>3073</v>
+        <v>3827</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>17.09</v>
+        <v>14.16</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>200</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2365,25 +2365,25 @@
         <v>70</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>15695</v>
+        <v>22122</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>3627</v>
+        <v>3141</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>13.24</v>
+        <v>18.68</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>353</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2397,22 +2397,22 @@
         <v>50</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>16624</v>
+        <v>18083</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>3544</v>
+        <v>3822</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>14.18</v>
+        <v>15.38</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2426,22 +2426,22 @@
         <v>50</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1067</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>19073</v>
+        <v>20316</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>2719</v>
+        <v>2932</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>17.63</v>
+        <v>18.76</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2455,22 +2455,22 @@
         <v>21</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>11131</v>
+        <v>12263</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1385</v>
+        <v>1441</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>12.02</v>
+        <v>13.23</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2487,19 +2487,19 @@
         <v>707</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>12130</v>
+        <v>13248</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1459</v>
+        <v>1509</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>17.16</v>
+        <v>18.74</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2513,22 +2513,22 @@
         <v>50</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>14657</v>
+        <v>15464</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>2009</v>
+        <v>2110</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>21.12</v>
+        <v>22.22</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2542,22 +2542,22 @@
         <v>21</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>10947</v>
+        <v>11489</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1827</v>
+        <v>1882</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>15.84</v>
+        <v>16.6</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2571,22 +2571,22 @@
         <v>21</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>20340</v>
+        <v>21471</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>2800</v>
+        <v>2888</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>30.22</v>
+        <v>31.81</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2600,22 +2600,22 @@
         <v>33</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>15959</v>
+        <v>16902</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>2196</v>
+        <v>2292</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>24.59</v>
+        <v>25.96</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2626,25 +2626,25 @@
         <v>79</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>15066</v>
+        <v>19261</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1424</v>
+        <v>2691</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>24.26</v>
+        <v>31.07</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>284</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2655,25 +2655,25 @@
         <v>80</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>17633</v>
+        <v>16298</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>2590</v>
+        <v>1592</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>28.53</v>
+        <v>26.29</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2687,22 +2687,22 @@
         <v>36</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>10355</v>
+        <v>11282</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1223</v>
+        <v>1284</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>17.37</v>
+        <v>18.9</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2722,16 +2722,16 @@
         <v>553</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>8992</v>
+        <v>9795</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1542</v>
+        <v>1662</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>16.03</v>
+        <v>17.46</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2745,22 +2745,22 @@
         <v>14</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>18653</v>
+        <v>20350</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1598</v>
+        <v>1696</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>36.08</v>
+        <v>39.29</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2774,22 +2774,22 @@
         <v>33</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>17110</v>
+        <v>18239</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>914</v>
+        <v>959</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>34.22</v>
+        <v>36.33</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2803,22 +2803,22 @@
         <v>50</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>7970</v>
+        <v>8539</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1307</v>
+        <v>1383</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>17.48</v>
+        <v>18.68</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2838,16 +2838,16 @@
         <v>442</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>8661</v>
+        <v>9138</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1094</v>
+        <v>1126</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>19.38</v>
+        <v>20.44</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2867,16 +2867,16 @@
         <v>435</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>6812</v>
+        <v>7409</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>640</v>
+        <v>690</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>15.48</v>
+        <v>16.84</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2887,25 +2887,25 @@
         <v>88</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>397</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>3081</v>
+        <v>20699</v>
       </c>
       <c r="G72" s="0" t="n">
+        <v>1669</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>52.14</v>
+      </c>
+      <c r="I72" s="0" t="n">
         <v>393</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="I72" s="0" t="n">
-        <v>106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2916,25 +2916,25 @@
         <v>89</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D73" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="E73" s="0" t="n">
         <v>396</v>
       </c>
-      <c r="E73" s="0" t="n">
-        <v>394</v>
-      </c>
       <c r="F73" s="0" t="n">
-        <v>19155</v>
+        <v>3276</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1597</v>
+        <v>432</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>48.37</v>
+        <v>8.25</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>370</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2948,22 +2948,22 @@
         <v>36</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>7369</v>
+        <v>7884</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>19.97</v>
+        <v>21.31</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2977,22 +2977,22 @@
         <v>21</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>4557</v>
+        <v>4742</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>12.48</v>
+        <v>12.96</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3006,22 +3006,22 @@
         <v>21</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>4197</v>
+        <v>4453</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>11.56</v>
+        <v>12.23</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3035,22 +3035,22 @@
         <v>33</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>335</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>10551</v>
+        <v>11147</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1368</v>
+        <v>1430</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>30.67</v>
+        <v>32.31</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3064,22 +3064,22 @@
         <v>50</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>10807</v>
+        <v>12362</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>32.65</v>
+        <v>37.23</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3093,22 +3093,22 @@
         <v>14</v>
       </c>
       <c r="D79" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>8257</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="I79" s="0" t="n">
         <v>316</v>
-      </c>
-      <c r="E79" s="0" t="n">
-        <v>315</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>7636</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <v>1196</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>24.16</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>269</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3128,16 +3128,16 @@
         <v>271</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>5652</v>
+        <v>6052</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>20.48</v>
+        <v>21.93</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3151,22 +3151,22 @@
         <v>33</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>263</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>6712</v>
+        <v>7188</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>896</v>
+        <v>938</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>25.42</v>
+        <v>27.12</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3180,22 +3180,22 @@
         <v>50</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>5922</v>
+        <v>6487</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1258</v>
+        <v>1411</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>23.59</v>
+        <v>25.74</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3209,22 +3209,22 @@
         <v>14</v>
       </c>
       <c r="D83" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="E83" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="E83" s="0" t="n">
-        <v>246</v>
-      </c>
       <c r="F83" s="0" t="n">
-        <v>1907</v>
+        <v>2085</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>7.72</v>
+        <v>8.41</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3244,16 +3244,16 @@
         <v>241</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>4312</v>
+        <v>4536</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>17.46</v>
+        <v>18.36</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3267,22 +3267,22 @@
         <v>50</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>6437</v>
+        <v>6936</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>992</v>
+        <v>1042</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>27.05</v>
+        <v>28.78</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3296,22 +3296,22 @@
         <v>12</v>
       </c>
       <c r="D86" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="E86" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="E86" s="0" t="n">
-        <v>228</v>
-      </c>
       <c r="F86" s="0" t="n">
-        <v>7826</v>
+        <v>8407</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>33.88</v>
+        <v>36.08</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3331,16 +3331,16 @@
         <v>228</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>2074</v>
+        <v>2195</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>9.1</v>
+        <v>9.63</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3360,16 +3360,16 @@
         <v>220</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>4953</v>
+        <v>5314</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>648</v>
+        <v>696</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>22.21</v>
+        <v>23.83</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3389,16 +3389,16 @@
         <v>216</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>5440</v>
+        <v>5727</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>870</v>
+        <v>915</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>24.84</v>
+        <v>26.15</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3412,22 +3412,22 @@
         <v>36</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>3672</v>
+        <v>3998</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>17</v>
+        <v>18.34</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3447,16 +3447,16 @@
         <v>210</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>1492</v>
+        <v>1578</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>7.1</v>
+        <v>7.51</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3476,16 +3476,16 @@
         <v>197</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>7214</v>
+        <v>7764</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>628</v>
+        <v>678</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>35.71</v>
+        <v>38.44</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3499,22 +3499,22 @@
         <v>50</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>3866</v>
+        <v>4117</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>20.67</v>
+        <v>21.9</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3528,22 +3528,22 @@
         <v>50</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>5222</v>
+        <v>5546</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>947</v>
+        <v>981</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>28.23</v>
+        <v>29.66</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3557,22 +3557,22 @@
         <v>14</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>149</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>3523</v>
+        <v>3797</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>22.44</v>
+        <v>24.03</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3592,16 +3592,16 @@
         <v>153</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>3976</v>
+        <v>4267</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>25.82</v>
+        <v>27.71</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3615,22 +3615,22 @@
         <v>33</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>3186</v>
+        <v>3404</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>20.96</v>
+        <v>22.1</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3650,16 +3650,16 @@
         <v>146</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>3740</v>
+        <v>4027</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>25.44</v>
+        <v>27.39</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3679,16 +3679,16 @@
         <v>133</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>3818</v>
+        <v>4115</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>27.87</v>
+        <v>30.04</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3708,16 +3708,16 @@
         <v>135</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>2157</v>
+        <v>2345</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>15.98</v>
+        <v>17.37</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3731,22 +3731,22 @@
         <v>21</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>1790</v>
+        <v>1893</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>13.66</v>
+        <v>14.34</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3760,22 +3760,22 @@
         <v>36</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>129</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>3192</v>
+        <v>3451</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>24.74</v>
+        <v>26.55</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3795,16 +3795,16 @@
         <v>125</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>2366</v>
+        <v>2486</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>18.78</v>
+        <v>19.73</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3824,16 +3824,16 @@
         <v>113</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>1080</v>
+        <v>1183</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>8.93</v>
+        <v>9.78</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3847,22 +3847,22 @@
         <v>24</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>2150</v>
+        <v>2305</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>19.03</v>
+        <v>20.22</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3876,22 +3876,22 @@
         <v>50</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>2867</v>
+        <v>3046</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>25.83</v>
+        <v>26.72</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3905,22 +3905,22 @@
         <v>12</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>2267</v>
+        <v>2354</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>163</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>21.39</v>
+        <v>21.8</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3940,16 +3940,16 @@
         <v>99</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>3238</v>
+        <v>3473</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>31.44</v>
+        <v>33.72</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3969,16 +3969,16 @@
         <v>93</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>9484</v>
+        <v>10836</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>101.98</v>
+        <v>116.52</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -3995,19 +3995,19 @@
         <v>86</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>3209</v>
+        <v>1319</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>37.31</v>
+        <v>15.34</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>166</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4021,22 +4021,22 @@
         <v>50</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>1242</v>
+        <v>3433</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>40</v>
+        <v>389</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>14.61</v>
+        <v>39.92</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>94</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4056,16 +4056,16 @@
         <v>84</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>896</v>
+        <v>1010</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>10.54</v>
+        <v>11.88</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4082,19 +4082,19 @@
         <v>80</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>1827</v>
+        <v>1549</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>22.84</v>
+        <v>19.36</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4111,19 +4111,19 @@
         <v>80</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>2237</v>
+        <v>1960</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>27.96</v>
+        <v>24.5</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4140,19 +4140,19 @@
         <v>80</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>1446</v>
+        <v>2402</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>18.08</v>
+        <v>30.03</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4166,22 +4166,22 @@
         <v>36</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>76</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>753</v>
+        <v>815</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>9.78</v>
+        <v>10.45</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4201,16 +4201,16 @@
         <v>75</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>2287</v>
+        <v>2475</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>30.49</v>
+        <v>33</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4230,16 +4230,16 @@
         <v>67</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>4867</v>
+        <v>5047</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>66.67</v>
+        <v>69.14</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4259,16 +4259,16 @@
         <v>69</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>1770</v>
+        <v>1934</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>24.93</v>
+        <v>27.24</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4288,16 +4288,16 @@
         <v>68</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>2626</v>
+        <v>2874</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>38.06</v>
+        <v>41.65</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4317,16 +4317,16 @@
         <v>66</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>1981</v>
+        <v>2114</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>29.13</v>
+        <v>31.09</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4337,7 +4337,7 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>67</v>
@@ -4346,16 +4346,16 @@
         <v>66</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>3001</v>
+        <v>2208</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>315</v>
+        <v>250</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>44.79</v>
+        <v>32.96</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4366,7 +4366,7 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>67</v>
@@ -4375,16 +4375,16 @@
         <v>66</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>2084</v>
+        <v>3197</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>31.1</v>
+        <v>47.72</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4398,22 +4398,22 @@
         <v>14</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>1235</v>
+        <v>1348</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>19.3</v>
+        <v>20.74</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4433,16 +4433,16 @@
         <v>61</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>1396</v>
+        <v>1473</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>21.81</v>
+        <v>23.02</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4462,16 +4462,16 @@
         <v>58</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="G126" s="0" t="n">
         <v>46</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>10.47</v>
+        <v>10.95</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4491,16 +4491,16 @@
         <v>56</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>2640</v>
+        <v>2865</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>46.32</v>
+        <v>50.26</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4520,16 +4520,16 @@
         <v>50</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>993</v>
+        <v>1080</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>19.1</v>
+        <v>20.77</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4549,16 +4549,16 @@
         <v>50</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>1106</v>
+        <v>1188</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>22.12</v>
+        <v>23.76</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4578,16 +4578,16 @@
         <v>50</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>920</v>
+        <v>969</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>18.4</v>
+        <v>19.38</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4607,16 +4607,16 @@
         <v>48</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1146</v>
+        <v>1257</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>23.39</v>
+        <v>25.65</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4636,16 +4636,16 @@
         <v>45</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>998</v>
+        <v>1074</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>20.79</v>
+        <v>22.38</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4665,16 +4665,16 @@
         <v>43</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>887</v>
+        <v>941</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>18.87</v>
+        <v>20.02</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4694,16 +4694,16 @@
         <v>47</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>12.77</v>
+        <v>13.6</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4723,16 +4723,16 @@
         <v>46</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>778</v>
+        <v>838</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>16.91</v>
+        <v>18.22</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4752,16 +4752,16 @@
         <v>45</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1216</v>
+        <v>1305</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>27.02</v>
+        <v>29</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4775,22 +4775,22 @@
         <v>50</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>713</v>
+        <v>762</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>16.98</v>
+        <v>17.72</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4810,16 +4810,16 @@
         <v>41</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>4.73</v>
+        <v>5.07</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4839,16 +4839,16 @@
         <v>39</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>747</v>
+        <v>804</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>18.68</v>
+        <v>20.1</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4868,16 +4868,16 @@
         <v>40</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1005</v>
+        <v>1085</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>25.13</v>
+        <v>27.13</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4897,16 +4897,16 @@
         <v>36</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>9.86</v>
+        <v>10.64</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4926,16 +4926,16 @@
         <v>35</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G142" s="0" t="n">
         <v>11</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4946,25 +4946,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>34</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1412</v>
+        <v>224</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>41.53</v>
+        <v>6.59</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -4975,25 +4975,25 @@
         <v>160</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>34</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>211</v>
+        <v>1500</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>6.21</v>
+        <v>44.12</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5013,16 +5013,16 @@
         <v>31</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>879</v>
+        <v>1288</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>28.35</v>
+        <v>41.55</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5042,16 +5042,16 @@
         <v>31</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>1217</v>
+        <v>952</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>39.26</v>
+        <v>30.71</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5065,22 +5065,22 @@
         <v>33</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>3066</v>
+        <v>3300</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>109.5</v>
+        <v>113.79</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5100,16 +5100,16 @@
         <v>24</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>15.81</v>
+        <v>17</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5129,16 +5129,16 @@
         <v>23</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>878</v>
+        <v>968</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>35.12</v>
+        <v>38.72</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5158,16 +5158,16 @@
         <v>23</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>27.13</v>
+        <v>28.3</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5187,16 +5187,16 @@
         <v>23</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>25.83</v>
+        <v>27.57</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5216,16 +5216,16 @@
         <v>21</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>17.29</v>
+        <v>18.57</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5245,16 +5245,16 @@
         <v>19</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>28.68</v>
+        <v>31.11</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5274,16 +5274,16 @@
         <v>18</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>23.67</v>
+        <v>27.11</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5303,16 +5303,16 @@
         <v>17</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>18.76</v>
+        <v>19.82</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5323,7 +5323,7 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>15</v>
@@ -5332,16 +5332,16 @@
         <v>15</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="G156" s="0" t="n">
         <v>27</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>35.73</v>
+        <v>37</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5361,16 +5361,16 @@
         <v>14</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>846</v>
+        <v>918</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>56.4</v>
+        <v>61.2</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5381,7 +5381,7 @@
         <v>174</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>15</v>
@@ -5390,16 +5390,16 @@
         <v>15</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="G158" s="0" t="n">
         <v>27</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>35.6</v>
+        <v>38.47</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5419,16 +5419,16 @@
         <v>14</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="G159" s="0" t="n">
         <v>9</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>23.79</v>
+        <v>24.93</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5439,25 +5439,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>597</v>
+        <v>927</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>42.64</v>
+        <v>66.21</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5468,25 +5468,25 @@
         <v>177</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>856</v>
+        <v>628</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>61.14</v>
+        <v>44.86</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5506,16 +5506,16 @@
         <v>14</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>22.14</v>
+        <v>23.79</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5535,16 +5535,16 @@
         <v>13</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>39</v>
+        <v>42.23</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5564,16 +5564,16 @@
         <v>13</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>18.85</v>
+        <v>20.23</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5584,25 +5584,25 @@
         <v>181</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>23.33</v>
+        <v>10.17</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5613,25 +5613,25 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>9.08</v>
+        <v>24.42</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5642,7 +5642,7 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>10</v>
@@ -5651,16 +5651,16 @@
         <v>10</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>31.2</v>
+        <v>24.1</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5671,7 +5671,7 @@
         <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>10</v>
@@ -5680,16 +5680,16 @@
         <v>10</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>528</v>
+        <v>323</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>52.8</v>
+        <v>32.3</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5709,16 +5709,16 @@
         <v>10</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5735,19 +5735,19 @@
         <v>10</v>
       </c>
       <c r="E170" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="G170" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F170" s="0" t="n">
-        <v>229</v>
-      </c>
-      <c r="G170" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="H170" s="0" t="n">
-        <v>22.9</v>
+        <v>57.4</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5758,25 +5758,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="G171" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>28.3</v>
+        <v>23.4</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5796,16 +5796,16 @@
         <v>10</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>22.5</v>
+        <v>30.5</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5816,25 +5816,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>31.11</v>
+        <v>13.67</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5845,7 +5845,7 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>9</v>
@@ -5854,16 +5854,16 @@
         <v>9</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>713</v>
+        <v>24</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>79.22</v>
+        <v>2.67</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5874,7 +5874,7 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>9</v>
@@ -5883,16 +5883,16 @@
         <v>9</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>327</v>
+        <v>753</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>36.33</v>
+        <v>83.67</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5903,7 +5903,7 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>9</v>
@@ -5912,16 +5912,16 @@
         <v>9</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>120</v>
+        <v>333</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>13.33</v>
+        <v>37</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5932,25 +5932,25 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>33.44</v>
+        <v>32.67</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5961,7 +5961,7 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>9</v>
@@ -5970,16 +5970,16 @@
         <v>9</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>22</v>
+        <v>356</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>2.44</v>
+        <v>39.56</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -5999,16 +5999,16 @@
         <v>7</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G179" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>6.63</v>
+        <v>7.25</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6028,16 +6028,16 @@
         <v>8</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>19.13</v>
+        <v>20</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6048,7 +6048,7 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>7</v>
@@ -6057,16 +6057,16 @@
         <v>7</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>715</v>
+        <v>71</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>102.14</v>
+        <v>10.14</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6077,7 +6077,7 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>7</v>
@@ -6086,16 +6086,16 @@
         <v>7</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>174</v>
+        <v>747</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>24.86</v>
+        <v>106.71</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6106,7 +6106,7 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>7</v>
@@ -6115,16 +6115,16 @@
         <v>7</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>9.86</v>
+        <v>27.71</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6135,25 +6135,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>12.67</v>
+        <v>19</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6164,25 +6164,25 @@
         <v>201</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>419</v>
+        <v>57</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>69.83</v>
+        <v>9.5</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6193,7 +6193,7 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>6</v>
@@ -6202,16 +6202,16 @@
         <v>6</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>121</v>
+        <v>436</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>20.17</v>
+        <v>72.67</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6222,7 +6222,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>6</v>
@@ -6231,16 +6231,16 @@
         <v>4</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>8.67</v>
+        <v>13</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6260,16 +6260,16 @@
         <v>5</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>5.2</v>
+        <v>10.2</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6280,7 +6280,7 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>5</v>
@@ -6289,16 +6289,16 @@
         <v>5</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>48.2</v>
+        <v>19.2</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6309,7 +6309,7 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>5</v>
@@ -6318,16 +6318,16 @@
         <v>5</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>10</v>
+        <v>24.8</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6338,7 +6338,7 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>5</v>
@@ -6347,16 +6347,16 @@
         <v>5</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>16.8</v>
+        <v>51.6</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6367,7 +6367,7 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>5</v>
@@ -6376,16 +6376,16 @@
         <v>5</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>23.6</v>
+        <v>5.4</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6396,25 +6396,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6434,16 +6434,16 @@
         <v>4</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>30.25</v>
+        <v>33</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6454,25 +6454,25 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>10</v>
+        <v>1395</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>2.5</v>
+        <v>348.75</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6483,7 +6483,7 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>4</v>
@@ -6492,16 +6492,16 @@
         <v>4</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>1249</v>
+        <v>61</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>312.25</v>
+        <v>15.25</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6521,16 +6521,16 @@
         <v>3</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G197" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>29</v>
+        <v>30.33</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6541,7 +6541,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>3</v>
@@ -6550,16 +6550,16 @@
         <v>3</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>3.67</v>
+        <v>8.33</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6570,7 +6570,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>3</v>
@@ -6579,16 +6579,16 @@
         <v>3</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>7.33</v>
+        <v>3.67</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6608,16 +6608,16 @@
         <v>3</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>27</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>35.33</v>
+        <v>37.67</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6646,7 +6646,7 @@
         <v>6</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6657,7 +6657,7 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>2</v>
@@ -6666,16 +6666,16 @@
         <v>2</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G202" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6686,7 +6686,7 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>2</v>
@@ -6695,16 +6695,16 @@
         <v>1</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6715,25 +6715,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6753,16 +6753,16 @@
         <v>2</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6773,25 +6773,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G206" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6820,7 +6820,7 @@
         <v>16</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6831,7 +6831,7 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>1</v>
@@ -6840,16 +6840,16 @@
         <v>1</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6860,7 +6860,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>1</v>
@@ -6869,16 +6869,16 @@
         <v>1</v>
       </c>
       <c r="F209" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="I209" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="G209" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H209" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I209" s="0" t="n">
-        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6889,7 +6889,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>1</v>
@@ -6898,16 +6898,16 @@
         <v>1</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6918,7 +6918,7 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>1</v>
@@ -6927,16 +6927,16 @@
         <v>1</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6956,16 +6956,16 @@
         <v>1</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -6994,7 +6994,7 @@
         <v>35</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7005,7 +7005,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>1</v>
@@ -7014,16 +7014,16 @@
         <v>1</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7034,7 +7034,7 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>1</v>
@@ -7043,16 +7043,16 @@
         <v>1</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7063,7 +7063,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>1</v>
@@ -7072,16 +7072,16 @@
         <v>1</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7092,7 +7092,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>1</v>
@@ -7101,16 +7101,16 @@
         <v>1</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
